--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.407937567664</v>
+        <v>155.2826053333333</v>
       </c>
       <c r="H2">
-        <v>126.407937567664</v>
+        <v>465.847816</v>
       </c>
       <c r="I2">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622114</v>
       </c>
       <c r="J2">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10160923502586</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N2">
-        <v>1.10160923502586</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q2">
-        <v>139.252151405111</v>
+        <v>257.1722702793004</v>
       </c>
       <c r="R2">
-        <v>139.252151405111</v>
+        <v>2314.550432513704</v>
       </c>
       <c r="S2">
-        <v>0.296546631629178</v>
+        <v>0.2775071947875632</v>
       </c>
       <c r="T2">
-        <v>0.296546631629178</v>
+        <v>0.2775071947875632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.407937567664</v>
+        <v>155.2826053333333</v>
       </c>
       <c r="H3">
-        <v>126.407937567664</v>
+        <v>465.847816</v>
       </c>
       <c r="I3">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622114</v>
       </c>
       <c r="J3">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.391481290354232</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N3">
-        <v>0.391481290354232</v>
+        <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q3">
-        <v>49.4863425100063</v>
+        <v>87.71562401374577</v>
       </c>
       <c r="R3">
-        <v>49.4863425100063</v>
+        <v>789.4406161237119</v>
       </c>
       <c r="S3">
-        <v>0.1053844269902716</v>
+        <v>0.09465140519488756</v>
       </c>
       <c r="T3">
-        <v>0.1053844269902716</v>
+        <v>0.09465140519488756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>117.751973499709</v>
+        <v>155.2826053333333</v>
       </c>
       <c r="H4">
-        <v>117.751973499709</v>
+        <v>465.847816</v>
       </c>
       <c r="I4">
-        <v>0.3744082553196745</v>
+        <v>0.4511422706622114</v>
       </c>
       <c r="J4">
-        <v>0.3744082553196745</v>
+        <v>0.4511422706622115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10160923502586</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N4">
-        <v>1.10160923502586</v>
+        <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q4">
-        <v>129.7166614497998</v>
+        <v>73.1959757629209</v>
       </c>
       <c r="R4">
-        <v>129.7166614497998</v>
+        <v>658.763781866288</v>
       </c>
       <c r="S4">
-        <v>0.2762401774835969</v>
+        <v>0.07898367067976056</v>
       </c>
       <c r="T4">
-        <v>0.2762401774835969</v>
+        <v>0.0789836706797606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>117.751973499709</v>
+        <v>117.8650183333333</v>
       </c>
       <c r="H5">
-        <v>117.751973499709</v>
+        <v>353.595055</v>
       </c>
       <c r="I5">
-        <v>0.3744082553196745</v>
+        <v>0.3424330232507294</v>
       </c>
       <c r="J5">
-        <v>0.3744082553196745</v>
+        <v>0.3424330232507295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.391481290354232</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N5">
-        <v>0.391481290354232</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O5">
-        <v>0.2621952813306974</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P5">
-        <v>0.2621952813306974</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q5">
-        <v>46.09769452742341</v>
+        <v>195.2028965911995</v>
       </c>
       <c r="R5">
-        <v>46.09769452742341</v>
+        <v>1756.826069320795</v>
       </c>
       <c r="S5">
-        <v>0.09816807783607763</v>
+        <v>0.2106378272766317</v>
       </c>
       <c r="T5">
-        <v>0.09816807783607763</v>
+        <v>0.2106378272766318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>70.3416305697655</v>
+        <v>117.8650183333333</v>
       </c>
       <c r="H6">
-        <v>70.3416305697655</v>
+        <v>353.595055</v>
       </c>
       <c r="I6">
-        <v>0.2236606860608758</v>
+        <v>0.3424330232507294</v>
       </c>
       <c r="J6">
-        <v>0.2236606860608758</v>
+        <v>0.3424330232507295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.10160923502586</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N6">
-        <v>1.10160923502586</v>
+        <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.7378047186693026</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P6">
-        <v>0.7378047186693026</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q6">
-        <v>77.48898984243101</v>
+        <v>66.57927724941779</v>
       </c>
       <c r="R6">
-        <v>77.48898984243101</v>
+        <v>599.21349524476</v>
       </c>
       <c r="S6">
-        <v>0.1650179095565277</v>
+        <v>0.0718437817592206</v>
       </c>
       <c r="T6">
-        <v>0.1650179095565277</v>
+        <v>0.0718437817592206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>70.3416305697655</v>
+        <v>117.8650183333333</v>
       </c>
       <c r="H7">
-        <v>70.3416305697655</v>
+        <v>353.595055</v>
       </c>
       <c r="I7">
-        <v>0.2236606860608758</v>
+        <v>0.3424330232507294</v>
       </c>
       <c r="J7">
-        <v>0.2236606860608758</v>
+        <v>0.3424330232507295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.391481290354232</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N7">
-        <v>0.391481290354232</v>
+        <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.2621952813306974</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P7">
-        <v>0.2621952813306974</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q7">
-        <v>27.53743230107249</v>
+        <v>55.5583479984989</v>
       </c>
       <c r="R7">
-        <v>27.53743230107249</v>
+        <v>500.0251319864901</v>
       </c>
       <c r="S7">
-        <v>0.05864277650434813</v>
+        <v>0.05995141421487705</v>
       </c>
       <c r="T7">
-        <v>0.05864277650434813</v>
+        <v>0.05995141421487707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>71.05112566666666</v>
+      </c>
+      <c r="H8">
+        <v>213.153377</v>
+      </c>
+      <c r="I8">
+        <v>0.2064247060870591</v>
+      </c>
+      <c r="J8">
+        <v>0.2064247060870591</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.656156333333334</v>
+      </c>
+      <c r="N8">
+        <v>4.968469000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="P8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="Q8">
+        <v>117.6717717633126</v>
+      </c>
+      <c r="R8">
+        <v>1059.045945869813</v>
+      </c>
+      <c r="S8">
+        <v>0.1269762220174622</v>
+      </c>
+      <c r="T8">
+        <v>0.1269762220174623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>71.05112566666666</v>
+      </c>
+      <c r="H9">
+        <v>213.153377</v>
+      </c>
+      <c r="I9">
+        <v>0.2064247060870591</v>
+      </c>
+      <c r="J9">
+        <v>0.2064247060870591</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5648773333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.694632</v>
+      </c>
+      <c r="O9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="P9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="Q9">
+        <v>40.13517039691822</v>
+      </c>
+      <c r="R9">
+        <v>361.2165335722639</v>
+      </c>
+      <c r="S9">
+        <v>0.04330870718321802</v>
+      </c>
+      <c r="T9">
+        <v>0.04330870718321802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>71.05112566666666</v>
+      </c>
+      <c r="H10">
+        <v>213.153377</v>
+      </c>
+      <c r="I10">
+        <v>0.2064247060870591</v>
+      </c>
+      <c r="J10">
+        <v>0.2064247060870591</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4713726666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.414118</v>
+      </c>
+      <c r="O10">
+        <v>0.1750748617810164</v>
+      </c>
+      <c r="P10">
+        <v>0.1750748617810165</v>
+      </c>
+      <c r="Q10">
+        <v>33.49155857516512</v>
+      </c>
+      <c r="R10">
+        <v>301.424027176486</v>
+      </c>
+      <c r="S10">
+        <v>0.03613977688637882</v>
+      </c>
+      <c r="T10">
+        <v>0.03613977688637882</v>
       </c>
     </row>
   </sheetData>
